--- a/natmiOut/OldD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H2">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I2">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J2">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N2">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O2">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P2">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q2">
-        <v>8.016741375574187</v>
+        <v>9.8157246812855</v>
       </c>
       <c r="R2">
-        <v>8.016741375574187</v>
+        <v>39.262898725142</v>
       </c>
       <c r="S2">
-        <v>0.0008222151086721511</v>
+        <v>0.0008684494273987837</v>
       </c>
       <c r="T2">
-        <v>0.0008222151086721511</v>
+        <v>0.0004369036059864853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H3">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I3">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J3">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N3">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O3">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P3">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q3">
-        <v>13.4732774127167</v>
+        <v>15.19410929610934</v>
       </c>
       <c r="R3">
-        <v>13.4732774127167</v>
+        <v>91.16465577665602</v>
       </c>
       <c r="S3">
-        <v>0.00138184977325322</v>
+        <v>0.00134430375203969</v>
       </c>
       <c r="T3">
-        <v>0.00138184977325322</v>
+        <v>0.00101444794298472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H4">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I4">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J4">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N4">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O4">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P4">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q4">
-        <v>30.69363243382827</v>
+        <v>34.983097811907</v>
       </c>
       <c r="R4">
-        <v>30.69363243382827</v>
+        <v>209.898586871442</v>
       </c>
       <c r="S4">
-        <v>0.003148008292248997</v>
+        <v>0.003095140934556803</v>
       </c>
       <c r="T4">
-        <v>0.003148008292248997</v>
+        <v>0.002335676999744213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H5">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I5">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J5">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N5">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O5">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P5">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q5">
-        <v>29.75567084394</v>
+        <v>33.38277605834067</v>
       </c>
       <c r="R5">
-        <v>29.75567084394</v>
+        <v>200.296656350044</v>
       </c>
       <c r="S5">
-        <v>0.003051808832340007</v>
+        <v>0.002953551947939414</v>
       </c>
       <c r="T5">
-        <v>0.003051808832340007</v>
+        <v>0.002228830123801654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H6">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I6">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J6">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N6">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O6">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P6">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q6">
-        <v>11.06345848833157</v>
+        <v>13.03315863181267</v>
       </c>
       <c r="R6">
-        <v>11.06345848833157</v>
+        <v>78.19895179087601</v>
       </c>
       <c r="S6">
-        <v>0.001134693299572964</v>
+        <v>0.001153112940563131</v>
       </c>
       <c r="T6">
-        <v>0.001134693299572964</v>
+        <v>0.0008701701894445002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.48949863743476</v>
+        <v>1.6392115</v>
       </c>
       <c r="H7">
-        <v>1.48949863743476</v>
+        <v>3.278423</v>
       </c>
       <c r="I7">
-        <v>0.0128722316365695</v>
+        <v>0.01272782471046816</v>
       </c>
       <c r="J7">
-        <v>0.0128722316365695</v>
+        <v>0.008552882094555033</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N7">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O7">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P7">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q7">
-        <v>32.50373333528395</v>
+        <v>37.44847190790701</v>
       </c>
       <c r="R7">
-        <v>32.50373333528395</v>
+        <v>149.793887631628</v>
       </c>
       <c r="S7">
-        <v>0.003333656330482155</v>
+        <v>0.003313265707970333</v>
       </c>
       <c r="T7">
-        <v>0.003333656330482155</v>
+        <v>0.001666853232593462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H8">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I8">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J8">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N8">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O8">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P8">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q8">
-        <v>34.44023294171286</v>
+        <v>45.76394034929567</v>
       </c>
       <c r="R8">
-        <v>34.44023294171286</v>
+        <v>274.5836420957741</v>
       </c>
       <c r="S8">
-        <v>0.003532268105485248</v>
+        <v>0.004048979477555289</v>
       </c>
       <c r="T8">
-        <v>0.003532268105485248</v>
+        <v>0.003055469343116165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H9">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I9">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J9">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N9">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O9">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P9">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q9">
-        <v>57.88172411250407</v>
+        <v>70.83963070129245</v>
       </c>
       <c r="R9">
-        <v>57.88172411250407</v>
+        <v>637.5566763116321</v>
       </c>
       <c r="S9">
-        <v>0.005936480404157399</v>
+        <v>0.006267559321113903</v>
       </c>
       <c r="T9">
-        <v>0.005936480404157399</v>
+        <v>0.007094504479949169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H10">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I10">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J10">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N10">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O10">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P10">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q10">
-        <v>131.8610394578989</v>
+        <v>163.102007592986</v>
       </c>
       <c r="R10">
-        <v>131.8610394578989</v>
+        <v>1467.918068336874</v>
       </c>
       <c r="S10">
-        <v>0.01352396613639465</v>
+        <v>0.01443050306532949</v>
       </c>
       <c r="T10">
-        <v>0.01352396613639465</v>
+        <v>0.01633447142654332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H11">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I11">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J11">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N11">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O11">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P11">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q11">
-        <v>127.8315199645352</v>
+        <v>155.6408132698076</v>
       </c>
       <c r="R11">
-        <v>127.8315199645352</v>
+        <v>1400.767319428268</v>
       </c>
       <c r="S11">
-        <v>0.01311068951277458</v>
+        <v>0.01377037147565385</v>
       </c>
       <c r="T11">
-        <v>0.01311068951277458</v>
+        <v>0.01558724171871545</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H12">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I12">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J12">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N12">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O12">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P12">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q12">
-        <v>47.52904822900306</v>
+        <v>60.7646112289969</v>
       </c>
       <c r="R12">
-        <v>47.52904822900306</v>
+        <v>546.881501060972</v>
       </c>
       <c r="S12">
-        <v>0.004874686574492954</v>
+        <v>0.005376168702912416</v>
       </c>
       <c r="T12">
-        <v>0.004874686574492954</v>
+        <v>0.006085503302583179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.39894411411555</v>
+        <v>7.642510333333334</v>
       </c>
       <c r="H13">
-        <v>6.39894411411555</v>
+        <v>22.927531</v>
       </c>
       <c r="I13">
-        <v>0.05529960806692318</v>
+        <v>0.05934105017601952</v>
       </c>
       <c r="J13">
-        <v>0.05529960806692318</v>
+        <v>0.05981426721391823</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N13">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O13">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P13">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q13">
-        <v>139.6373033753155</v>
+        <v>174.5963431343194</v>
       </c>
       <c r="R13">
-        <v>139.6373033753155</v>
+        <v>1047.578058805916</v>
       </c>
       <c r="S13">
-        <v>0.01432151733361835</v>
+        <v>0.01544746813345456</v>
       </c>
       <c r="T13">
-        <v>0.01432151733361835</v>
+        <v>0.01165707694301095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H14">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I14">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J14">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N14">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O14">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P14">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q14">
-        <v>170.3627419159787</v>
+        <v>252.647663335522</v>
       </c>
       <c r="R14">
-        <v>170.3627419159787</v>
+        <v>1515.885980013132</v>
       </c>
       <c r="S14">
-        <v>0.01747278773204773</v>
+        <v>0.02235308402401522</v>
       </c>
       <c r="T14">
-        <v>0.01747278773204773</v>
+        <v>0.01686824132798919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H15">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I15">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J15">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N15">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O15">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P15">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q15">
-        <v>286.3188888216617</v>
+        <v>391.0823026083307</v>
       </c>
       <c r="R15">
-        <v>286.3188888216617</v>
+        <v>3519.740723474976</v>
       </c>
       <c r="S15">
-        <v>0.02936551215243997</v>
+        <v>0.03460113367009422</v>
       </c>
       <c r="T15">
-        <v>0.02936551215243997</v>
+        <v>0.03916642591747754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H16">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I16">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J16">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N16">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O16">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P16">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q16">
-        <v>652.2664429116223</v>
+        <v>900.432541192548</v>
       </c>
       <c r="R16">
-        <v>652.2664429116223</v>
+        <v>8103.892870732931</v>
       </c>
       <c r="S16">
-        <v>0.06689792012946968</v>
+        <v>0.0796660613658827</v>
       </c>
       <c r="T16">
-        <v>0.06689792012946968</v>
+        <v>0.09017724449071692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H17">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I17">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J17">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N17">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O17">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P17">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q17">
-        <v>632.3339415648651</v>
+        <v>859.2417412514694</v>
       </c>
       <c r="R17">
-        <v>632.3339415648651</v>
+        <v>7733.175671263223</v>
       </c>
       <c r="S17">
-        <v>0.0648535977554355</v>
+        <v>0.0760216919704034</v>
       </c>
       <c r="T17">
-        <v>0.0648535977554355</v>
+        <v>0.08605203503067747</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H18">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I18">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J18">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N18">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O18">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P18">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q18">
-        <v>235.1081361921546</v>
+        <v>335.4614336816774</v>
       </c>
       <c r="R18">
-        <v>235.1081361921546</v>
+        <v>3019.152903135096</v>
       </c>
       <c r="S18">
-        <v>0.02411322165611134</v>
+        <v>0.02968005923706022</v>
       </c>
       <c r="T18">
-        <v>0.02411322165611134</v>
+        <v>0.03359606226831176</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.6531443469854</v>
+        <v>42.191786</v>
       </c>
       <c r="H19">
-        <v>31.6531443469854</v>
+        <v>126.575358</v>
       </c>
       <c r="I19">
-        <v>0.2735461421850495</v>
+        <v>0.3276024213041357</v>
       </c>
       <c r="J19">
-        <v>0.2735461421850495</v>
+        <v>0.3302148969337066</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N19">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O19">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P19">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q19">
-        <v>690.7326648177127</v>
+        <v>963.8889873365481</v>
       </c>
       <c r="R19">
-        <v>690.7326648177127</v>
+        <v>5783.333924019288</v>
       </c>
       <c r="S19">
-        <v>0.07084310275954522</v>
+        <v>0.08528039103668</v>
       </c>
       <c r="T19">
-        <v>0.07084310275954522</v>
+        <v>0.06435488789853373</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H20">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I20">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J20">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N20">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O20">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P20">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q20">
-        <v>399.6845529377111</v>
+        <v>450.9795760309941</v>
       </c>
       <c r="R20">
-        <v>399.6845529377111</v>
+        <v>2705.877456185965</v>
       </c>
       <c r="S20">
-        <v>0.04099255080493636</v>
+        <v>0.03990056437905008</v>
       </c>
       <c r="T20">
-        <v>0.04099255080493636</v>
+        <v>0.03011004424918221</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H21">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I21">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J21">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N21">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O21">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P21">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q21">
-        <v>671.7269033668607</v>
+        <v>698.0873232510614</v>
       </c>
       <c r="R21">
-        <v>671.7269033668607</v>
+        <v>6282.785909259554</v>
       </c>
       <c r="S21">
-        <v>0.06889382892313062</v>
+        <v>0.06176350252647234</v>
       </c>
       <c r="T21">
-        <v>0.06889382892313062</v>
+        <v>0.06991261237772121</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H22">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I22">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J22">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N22">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O22">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P22">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q22">
-        <v>1530.268993674556</v>
+        <v>1607.284549203396</v>
       </c>
       <c r="R22">
-        <v>1530.268993674556</v>
+        <v>14465.56094283057</v>
       </c>
       <c r="S22">
-        <v>0.1569478455130568</v>
+        <v>0.1422050222215276</v>
       </c>
       <c r="T22">
-        <v>0.1569478455130568</v>
+        <v>0.1609676295880031</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H23">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I23">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J23">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N23">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O23">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P23">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q23">
-        <v>1483.505758943114</v>
+        <v>1533.758401173539</v>
       </c>
       <c r="R23">
-        <v>1483.505758943114</v>
+        <v>13803.82561056185</v>
       </c>
       <c r="S23">
-        <v>0.1521517025011687</v>
+        <v>0.135699772407715</v>
       </c>
       <c r="T23">
-        <v>0.1521517025011687</v>
+        <v>0.1536040736034895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H24">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I24">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J24">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N24">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O24">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P24">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q24">
-        <v>551.5824014638392</v>
+        <v>598.8033023507547</v>
       </c>
       <c r="R24">
-        <v>551.5824014638392</v>
+        <v>5389.229721156793</v>
       </c>
       <c r="S24">
-        <v>0.05657153735095439</v>
+        <v>0.05297931654934199</v>
       </c>
       <c r="T24">
-        <v>0.05657153735095439</v>
+        <v>0.05996943616277601</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>74.2607961407265</v>
+        <v>75.312922</v>
       </c>
       <c r="H25">
-        <v>74.2607961407265</v>
+        <v>225.938766</v>
       </c>
       <c r="I25">
-        <v>0.6417610230820812</v>
+        <v>0.5847748564777399</v>
       </c>
       <c r="J25">
-        <v>0.6417610230820812</v>
+        <v>0.5894381616366343</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N25">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O25">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P25">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q25">
-        <v>1620.513812071063</v>
+        <v>1720.555183891396</v>
       </c>
       <c r="R25">
-        <v>1620.513812071063</v>
+        <v>10323.33110334838</v>
       </c>
       <c r="S25">
-        <v>0.1662035579888342</v>
+        <v>0.1522266783936328</v>
       </c>
       <c r="T25">
-        <v>0.1662035579888342</v>
+        <v>0.1148743656554623</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H26">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I26">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J26">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N26">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O26">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P26">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q26">
-        <v>3.008435775630228</v>
+        <v>3.506925279152667</v>
       </c>
       <c r="R26">
-        <v>3.008435775630228</v>
+        <v>21.041551674916</v>
       </c>
       <c r="S26">
-        <v>0.0003085519704713973</v>
+        <v>0.0003102763524344891</v>
       </c>
       <c r="T26">
-        <v>0.0003085519704713973</v>
+        <v>0.0002341429212009491</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H27">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I27">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J27">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N27">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O27">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P27">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q27">
-        <v>5.056105452884771</v>
+        <v>5.428494351143112</v>
       </c>
       <c r="R27">
-        <v>5.056105452884771</v>
+        <v>48.85644916028801</v>
       </c>
       <c r="S27">
-        <v>0.0005185655991183516</v>
+        <v>0.0004802877998275678</v>
       </c>
       <c r="T27">
-        <v>0.0005185655991183516</v>
+        <v>0.0005436572313026034</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H28">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I28">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J28">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N28">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O28">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P28">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q28">
-        <v>11.51837356002514</v>
+        <v>12.498629906924</v>
       </c>
       <c r="R28">
-        <v>11.51837356002514</v>
+        <v>112.487669162316</v>
       </c>
       <c r="S28">
-        <v>0.001181350417170491</v>
+        <v>0.001105820338118523</v>
       </c>
       <c r="T28">
-        <v>0.001181350417170491</v>
+        <v>0.001251722870236267</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H29">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I29">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J29">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N29">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O29">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P29">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q29">
-        <v>11.16638550515481</v>
+        <v>11.92687295625689</v>
       </c>
       <c r="R29">
-        <v>11.16638550515481</v>
+        <v>107.341856606312</v>
       </c>
       <c r="S29">
-        <v>0.001145249726973811</v>
+        <v>0.001055233956313741</v>
       </c>
       <c r="T29">
-        <v>0.001145249726973811</v>
+        <v>0.001194462093919489</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H30">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I30">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J30">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N30">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O30">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P30">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q30">
-        <v>4.151774737290031</v>
+        <v>4.656438007094222</v>
       </c>
       <c r="R30">
-        <v>4.151774737290031</v>
+        <v>41.907942063848</v>
       </c>
       <c r="S30">
-        <v>0.0004258153976632078</v>
+        <v>0.0004119798641753785</v>
       </c>
       <c r="T30">
-        <v>0.0004258153976632078</v>
+        <v>0.0004663367097611481</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.558962897601304</v>
+        <v>0.5856513333333333</v>
       </c>
       <c r="H31">
-        <v>0.558962897601304</v>
+        <v>1.756954</v>
       </c>
       <c r="I31">
-        <v>0.004830551511321678</v>
+        <v>0.004547349449487526</v>
       </c>
       <c r="J31">
-        <v>0.004830551511321678</v>
+        <v>0.004583612428157332</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N31">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O31">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P31">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q31">
-        <v>12.19764859888715</v>
+        <v>13.37944951225733</v>
       </c>
       <c r="R31">
-        <v>12.19764859888715</v>
+        <v>80.276697073544</v>
       </c>
       <c r="S31">
-        <v>0.001251018399924419</v>
+        <v>0.001183751138617827</v>
       </c>
       <c r="T31">
-        <v>0.001251018399924419</v>
+        <v>0.0008932906017368755</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H32">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I32">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J32">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.38217435994487</v>
+        <v>5.988077000000001</v>
       </c>
       <c r="N32">
-        <v>5.38217435994487</v>
+        <v>11.976154</v>
       </c>
       <c r="O32">
-        <v>0.06387510199368</v>
+        <v>0.06823235290823237</v>
       </c>
       <c r="P32">
-        <v>0.06387510199368</v>
+        <v>0.05108261766692989</v>
       </c>
       <c r="Q32">
-        <v>7.280731492102075</v>
+        <v>8.488233879232501</v>
       </c>
       <c r="R32">
-        <v>7.280731492102075</v>
+        <v>33.95293551693</v>
       </c>
       <c r="S32">
-        <v>0.0007467282720671151</v>
+        <v>0.0007509992477785157</v>
       </c>
       <c r="T32">
-        <v>0.0007467282720671151</v>
+        <v>0.0003778162194548888</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H33">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I33">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J33">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.04551174072949</v>
+        <v>9.269157333333334</v>
       </c>
       <c r="N33">
-        <v>9.04551174072949</v>
+        <v>27.807472</v>
       </c>
       <c r="O33">
-        <v>0.1073512202287784</v>
+        <v>0.105619285511848</v>
       </c>
       <c r="P33">
-        <v>0.1073512202287784</v>
+        <v>0.1186089006921469</v>
       </c>
       <c r="Q33">
-        <v>12.23630781697359</v>
+        <v>13.13923907604</v>
       </c>
       <c r="R33">
-        <v>12.23630781697359</v>
+        <v>78.83543445624001</v>
       </c>
       <c r="S33">
-        <v>0.001254983376678812</v>
+        <v>0.001162498442300266</v>
       </c>
       <c r="T33">
-        <v>0.001254983376678812</v>
+        <v>0.0008772527427116984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H34">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I34">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J34">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.606687151248</v>
+        <v>21.341418</v>
       </c>
       <c r="N34">
-        <v>20.606687151248</v>
+        <v>64.024254</v>
       </c>
       <c r="O34">
-        <v>0.2445580829438799</v>
+        <v>0.2431790981542326</v>
       </c>
       <c r="P34">
-        <v>0.2445580829438799</v>
+        <v>0.2730865425154358</v>
       </c>
       <c r="Q34">
-        <v>27.87567738543559</v>
+        <v>30.251940196905</v>
       </c>
       <c r="R34">
-        <v>27.87567738543559</v>
+        <v>181.51164118143</v>
       </c>
       <c r="S34">
-        <v>0.002858992455539225</v>
+        <v>0.002676550228817511</v>
       </c>
       <c r="T34">
-        <v>0.002858992455539225</v>
+        <v>0.002019797140192047</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H35">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I35">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J35">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.9769708384465</v>
+        <v>20.36514266666667</v>
       </c>
       <c r="N35">
-        <v>19.9769708384465</v>
+        <v>61.095428</v>
       </c>
       <c r="O35">
-        <v>0.2370846733110318</v>
+        <v>0.2320547316707017</v>
       </c>
       <c r="P35">
-        <v>0.2370846733110318</v>
+        <v>0.2605940429391141</v>
       </c>
       <c r="Q35">
-        <v>27.02382921347276</v>
+        <v>28.86804794571</v>
       </c>
       <c r="R35">
-        <v>27.02382921347276</v>
+        <v>173.20828767426</v>
       </c>
       <c r="S35">
-        <v>0.002771624982339127</v>
+        <v>0.002554109912676277</v>
       </c>
       <c r="T35">
-        <v>0.002771624982339127</v>
+        <v>0.001927400368510489</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H36">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I36">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J36">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.42763921381308</v>
+        <v>7.950870666666667</v>
       </c>
       <c r="N36">
-        <v>7.42763921381308</v>
+        <v>23.852612</v>
       </c>
       <c r="O36">
-        <v>0.08815047239744707</v>
+        <v>0.09059780180777782</v>
       </c>
       <c r="P36">
-        <v>0.08815047239744707</v>
+        <v>0.1017399959247037</v>
       </c>
       <c r="Q36">
-        <v>10.04773222109718</v>
+        <v>11.27053806459</v>
       </c>
       <c r="R36">
-        <v>10.04773222109718</v>
+        <v>67.62322838754</v>
       </c>
       <c r="S36">
-        <v>0.001030518118652217</v>
+        <v>0.0009971645137246785</v>
       </c>
       <c r="T36">
-        <v>0.001030518118652217</v>
+        <v>0.0007524872918271019</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.35274909454562</v>
+        <v>1.4175225</v>
       </c>
       <c r="H37">
-        <v>1.35274909454562</v>
+        <v>2.835045</v>
       </c>
       <c r="I37">
-        <v>0.01169044351805495</v>
+        <v>0.01100649788214919</v>
       </c>
       <c r="J37">
-        <v>0.01169044351805495</v>
+        <v>0.007396179693028561</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.8219288815614</v>
+        <v>22.845418</v>
       </c>
       <c r="N37">
-        <v>21.8219288815614</v>
+        <v>45.690836</v>
       </c>
       <c r="O37">
-        <v>0.2589804491251828</v>
+        <v>0.2603167299472075</v>
       </c>
       <c r="P37">
-        <v>0.2589804491251828</v>
+        <v>0.1948879002616697</v>
       </c>
       <c r="Q37">
-        <v>29.5195945357711</v>
+        <v>32.38389403690501</v>
       </c>
       <c r="R37">
-        <v>29.5195945357711</v>
+        <v>129.53557614762</v>
       </c>
       <c r="S37">
-        <v>0.003027596312778453</v>
+        <v>0.002865175536851942</v>
       </c>
       <c r="T37">
-        <v>0.003027596312778453</v>
+        <v>0.001441425930332337</v>
       </c>
     </row>
   </sheetData>
